--- a/medicine/Sexualité et sexologie/Phil_Harvey/Phil_Harvey.xlsx
+++ b/medicine/Sexualité et sexologie/Phil_Harvey/Phil_Harvey.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Philip Dow Harvey, né le 25 avril 1938 à Evanston (Illinois) et mort le 2 décembre 2021 à Cabin John (Maryland) (en), est un libertaire et philanthrope américain[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philip Dow Harvey, né le 25 avril 1938 à Evanston (Illinois) et mort le 2 décembre 2021 à Cabin John (Maryland) (en), est un libertaire et philanthrope américain.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est connu pour ses programmes de promotion des moyens de contraception dans les pays émergents, par le biais de son organisme charitable DKT International sur la planification familiale. Il a notamment participé à la mise en place d'un programme qui oblige les soldats de l'armée éthiopienne à emporter des préservatifs quand ils quittent leur base. Le programme a permis de réduire l'incidence du VIH à moins de 5 % parmi les soldats éthiopiens, alors qu'il s'élève jusqu'à 40 % dans d'autres pays d'Afrique.
 Harvey est également le président d'Adam &amp; Eve, une entreprise de vente par catalogue située à Hillsborough (Caroline du Nord). L'entreprise, qui se spécialise dans la vente de matériel pornographique et de jouets érotiques, a été poursuivie à plusieurs reprises pour « obscénité » par l'administration Reagan. Elle a toujours été blanchie des accusations portées contre elle.
@@ -543,7 +557,9 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>2006 : AASECT - Humanitarian Award
 2007 : AVN Hall of Fame - Founders Branch
